--- a/assignment2_partB.xlsx
+++ b/assignment2_partB.xlsx
@@ -8,53 +8,94 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucian/Library/CloudStorage/OneDrive-UvA/Statistics/assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58244E47-2819-AF49-ACE6-7D414E2A9956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3208491-D106-2847-BFF6-55AE5454E4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="680" windowWidth="30160" windowHeight="18960" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
+    <workbookView xWindow="80" yWindow="680" windowWidth="30160" windowHeight="18960" activeTab="1" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3a_optimal_product_mix" sheetId="1" r:id="rId1"/>
-    <sheet name="Ex. 1c-a Transportation problem" sheetId="2" r:id="rId2"/>
+    <sheet name="2.3c_optical_product_mix" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$A$10:$A$14</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$A$10:$A$14</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$D$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$A$10:$A$14</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$E$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$D$15</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$F$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$E$15</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$G$15</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$F$15</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$G$15</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$C$15</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$C$15</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$D$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$E$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$D$16</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$F$16</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$E$16</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$G$16</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$F$16</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$G$16</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Foods </t>
   </si>
@@ -98,33 +139,6 @@
   </si>
   <si>
     <t>Carbohydrate (g)</t>
-  </si>
-  <si>
-    <t>Exercise 1c for 1a: Transportation problem</t>
-  </si>
-  <si>
-    <t>Source\destination</t>
-  </si>
-  <si>
-    <t>Supply</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>Decision variables x_{ij}</t>
-  </si>
-  <si>
-    <t>Source i\destination j</t>
-  </si>
-  <si>
-    <t>Outflow</t>
-  </si>
-  <si>
-    <t>Inflow</t>
-  </si>
-  <si>
-    <t>Objective</t>
   </si>
   <si>
     <t>Color coding:</t>
@@ -188,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,14 +215,6 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -273,16 +279,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -297,7 +302,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -322,143 +327,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>44547</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>47890</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BDAFD81-7322-F247-83C2-8170D8DD60E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4470400"/>
-          <a:ext cx="5518247" cy="5331090"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>596348</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>74542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>763656</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114178</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF67C2BA-AED1-3545-A9ED-A2DF69F822C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4520648" y="277742"/>
-          <a:ext cx="2643808" cy="3290836"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91109</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>188409</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>186028</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6048ED-00BB-ED46-A03F-1A745C01BAF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7419009" y="659296"/>
-          <a:ext cx="2573800" cy="1965132"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -780,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A626F52E-9D9C-5B41-B89A-093EFBA3A711}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,75 +661,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -881,10 +749,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="14"/>
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
@@ -902,210 +770,210 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="16">
+        <v>18</v>
+      </c>
+      <c r="C10" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>23</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>0.1</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>0.6</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>7.7146690518783547</v>
+      <c r="A11" s="12">
+        <v>7.7146690518783503</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="16">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15">
         <v>0.12</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>171</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>0.2</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>3.7</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>30</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="M11" s="9"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="16">
+        <v>20</v>
+      </c>
+      <c r="C12" s="15">
         <v>0.2</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>65</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>0</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>13</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="M12" s="9"/>
+      <c r="I12" s="11"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="16">
+        <v>21</v>
+      </c>
+      <c r="C13" s="15">
         <v>0.75</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>112</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>7</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>0</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>9.2799642218246898</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="16">
+        <v>22</v>
+      </c>
+      <c r="C14" s="15">
         <v>0.15</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>188</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>16</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>7.7</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>2</v>
       </c>
-      <c r="M14" s="9"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f>SUMPRODUCT(C10:C14,A10:A14)</f>
-        <v>2.3177549194991061</v>
-      </c>
-      <c r="D15" s="18">
+        <v>2.3177549194991052</v>
+      </c>
+      <c r="D15" s="17">
         <f>SUMPRODUCT(D10:D14,$A$10:$A$14)</f>
-        <v>3063.8416815742403</v>
-      </c>
-      <c r="E15" s="18">
+        <v>3063.8416815742394</v>
+      </c>
+      <c r="E15" s="17">
         <f>SUMPRODUCT(E10:E14,$A$10:$A$14)</f>
         <v>150.02236135957071</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <f>SUMPRODUCT(F10:F14,$A$10:$A$14)</f>
-        <v>100.00000000000003</v>
-      </c>
-      <c r="G15" s="18">
+        <v>100</v>
+      </c>
+      <c r="G15" s="17">
         <f>SUMPRODUCT(G10:G14,$A$10:$A$14)</f>
-        <v>250</v>
+        <v>249.99999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="C16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10">
         <v>2000</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>50</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>100</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
-        <v>20</v>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1133,202 +1001,357 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165A8AF5-EC68-3D4E-B9DD-116B8E7B9596}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068C5785-3DE2-7B42-9C80-7E2A1D45009E}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="4" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D10" s="15">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="D11" s="15">
+        <v>171</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="G11" s="15">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>65</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G12" s="15">
+        <v>13</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="15">
+        <v>112</v>
+      </c>
+      <c r="E13" s="15">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F13" s="15">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="16">
+        <v>188</v>
+      </c>
+      <c r="E14" s="15">
+        <v>16</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7.7</v>
+      </c>
+      <c r="G14" s="15">
+        <v>2</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="5">
+        <f>SUMPRODUCT(C10:C14,A10:A14)</f>
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="D15" s="17">
+        <f>SUMPRODUCT(D10:D14,$A$10:$A$14)</f>
+        <v>3231</v>
+      </c>
+      <c r="E15" s="17">
+        <f>SUMPRODUCT(E10:E14,$A$10:$A$14)</f>
+        <v>145.80000000000001</v>
+      </c>
+      <c r="F15" s="17">
+        <f>SUMPRODUCT(F10:F14,$A$10:$A$14)</f>
+        <v>102.6</v>
+      </c>
+      <c r="G15" s="17">
+        <f>SUMPRODUCT(G10:G14,$A$10:$A$14)</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="10">
+        <v>50</v>
+      </c>
+      <c r="F16" s="10">
+        <v>100</v>
+      </c>
+      <c r="G16" s="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7">
-        <v>200</v>
-      </c>
-      <c r="C7" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>100</v>
-      </c>
-      <c r="D11" s="4">
-        <f>SUM(B11:C11)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3">
-        <v>200</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <f>SUM(B12:C12)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>100</v>
-      </c>
-      <c r="D13" s="4">
-        <f>SUM(B13:C13)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4">
-        <f>SUM(B11:B13)</f>
-        <v>200</v>
-      </c>
-      <c r="C14" s="4">
-        <f>SUM(C11:C13)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <f>SUMPRODUCT(B4:C6,B11:C13)</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
+  <scenarios current="0">
+    <scenario name="test1" count="5" user="Work" comment="Created by Work on 10/9/2025">
+      <inputCells r="A10" val="0"/>
+      <inputCells r="A11" val="7.46753246753247"/>
+      <inputCells r="A12" val="0"/>
+      <inputCells r="A13" val="0"/>
+      <inputCells r="A14" val="12.987012987013"/>
+    </scenario>
+  </scenarios>
+  <mergeCells count="7">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assignment2_partB.xlsx
+++ b/assignment2_partB.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucian/Library/CloudStorage/OneDrive-UvA/Statistics/assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3208491-D106-2847-BFF6-55AE5454E4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7D9371-3A32-6842-B508-A56D4C95B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="680" windowWidth="30160" windowHeight="18960" activeTab="1" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
+    <workbookView xWindow="80" yWindow="680" windowWidth="30160" windowHeight="18960" activeTab="2" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3a_optimal_product_mix" sheetId="1" r:id="rId1"/>
     <sheet name="2.3c_optical_product_mix" sheetId="3" r:id="rId2"/>
+    <sheet name="2.5a_Call_Center_Staffing" sheetId="4" r:id="rId3"/>
+    <sheet name="Shift scheduling" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$A$10:$A$14</definedName>
@@ -118,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t>Foods </t>
   </si>
@@ -141,6 +143,9 @@
     <t>Carbohydrate (g)</t>
   </si>
   <si>
+    <t>Objective</t>
+  </si>
+  <si>
     <t>Color coding:</t>
   </si>
   <si>
@@ -193,6 +198,177 @@
   </si>
   <si>
     <t>minimize</t>
+  </si>
+  <si>
+    <t>Shift scheduling</t>
+  </si>
+  <si>
+    <t>a_{iu} = 1 if u in S_i, 0 else.</t>
+  </si>
+  <si>
+    <t>Time interval</t>
+  </si>
+  <si>
+    <t>9-10h</t>
+  </si>
+  <si>
+    <t>10-11h</t>
+  </si>
+  <si>
+    <t>11-12h</t>
+  </si>
+  <si>
+    <t>12-13h</t>
+  </si>
+  <si>
+    <t>Decision variables</t>
+  </si>
+  <si>
+    <t>Shift working time</t>
+  </si>
+  <si>
+    <t>Shift i \ Hour u</t>
+  </si>
+  <si>
+    <t>Shift i</t>
+  </si>
+  <si>
+    <t>Costs c_i</t>
+  </si>
+  <si>
+    <t>x_i</t>
+  </si>
+  <si>
+    <t>9-11h</t>
+  </si>
+  <si>
+    <t>10-12h</t>
+  </si>
+  <si>
+    <t>11-13h</t>
+  </si>
+  <si>
+    <t>9-13h</t>
+  </si>
+  <si>
+    <t>Hour u</t>
+  </si>
+  <si>
+    <t>Required staffing b_u</t>
+  </si>
+  <si>
+    <t>Restrictions</t>
+  </si>
+  <si>
+    <t>Number of workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considering the solution for part a was the optimal solution, with positive real numbers, any deviation from this would be less optimal. </t>
+  </si>
+  <si>
+    <t>For this reason, an optimal integer solution would not be able to properly minimize the objective function. Thus, the price/serving increased slightly, from ~2.31 to ~2.43.</t>
+  </si>
+  <si>
+    <t>09:00 - 09:30 </t>
+  </si>
+  <si>
+    <t>09:30 - 10:00 </t>
+  </si>
+  <si>
+    <t>10:00 - 10:30 </t>
+  </si>
+  <si>
+    <t>10:30 - 11:00 </t>
+  </si>
+  <si>
+    <t>11:00 - 11:30 </t>
+  </si>
+  <si>
+    <t>11:30 - 12:00 </t>
+  </si>
+  <si>
+    <t>12:00 - 12:30 </t>
+  </si>
+  <si>
+    <t>12:30 - 13:00 </t>
+  </si>
+  <si>
+    <t>13:00 - 13:30 </t>
+  </si>
+  <si>
+    <t>13:30 - 14:00 </t>
+  </si>
+  <si>
+    <t>14:00 - 14:30 </t>
+  </si>
+  <si>
+    <t>14:30 - 15:00 </t>
+  </si>
+  <si>
+    <t>15:00 - 15:30 </t>
+  </si>
+  <si>
+    <t>15:30 - 16:00 </t>
+  </si>
+  <si>
+    <t>16:00 - 16:30 </t>
+  </si>
+  <si>
+    <t>16:30 - 17:00 </t>
+  </si>
+  <si>
+    <t>17:00 - 17:30 </t>
+  </si>
+  <si>
+    <t>17:30 - 18:00 </t>
+  </si>
+  <si>
+    <t>18:00 - 18:30 </t>
+  </si>
+  <si>
+    <t>18:30 - 19:00 </t>
+  </si>
+  <si>
+    <t>19:00 - 19:30 </t>
+  </si>
+  <si>
+    <t>19:30 - 20:00 </t>
+  </si>
+  <si>
+    <t>20:00 - 20:30 </t>
+  </si>
+  <si>
+    <t>20:30 - 21:00</t>
+  </si>
+  <si>
+    <t>Decision var X</t>
+  </si>
+  <si>
+    <t>Required number of workers</t>
+  </si>
+  <si>
+    <t>Shift A</t>
+  </si>
+  <si>
+    <t>Shift B</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>euros/hr</t>
+  </si>
+  <si>
+    <t>shift start</t>
+  </si>
+  <si>
+    <t>9:00-12:30</t>
+  </si>
+  <si>
+    <t>9:00-17:00</t>
+  </si>
+  <si>
+    <t>minimize salary cost</t>
   </si>
 </sst>
 </file>
@@ -202,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,6 +393,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -229,7 +413,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +450,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -279,15 +475,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -302,7 +499,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -310,6 +507,27 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -327,6 +545,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>434344</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>158259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAAB91C-900F-0343-A143-1F1F3085E2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4876800"/>
+          <a:ext cx="5361944" cy="5847859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>148726</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8539536-B1C3-D445-A255-F6E88CC6B139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5854701" y="2222500"/>
+          <a:ext cx="4390525" cy="3350901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438242</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419084</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77E6C52-300A-BA4C-B141-163512BC0DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10356942" y="2030505"/>
+          <a:ext cx="4933842" cy="3862295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,7 +1004,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,75 +1016,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="A3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="A4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -749,10 +1104,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="13"/>
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
@@ -770,210 +1125,210 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="15">
+        <v>19</v>
+      </c>
+      <c r="C10" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="16">
         <v>23</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="16">
         <v>0.1</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="16">
         <v>0.6</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>7.7146690518783503</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16">
         <v>0.12</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <v>171</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16">
         <v>0.2</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="16">
         <v>3.7</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="16">
         <v>30</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="M11" s="8"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15">
+        <v>21</v>
+      </c>
+      <c r="C12" s="16">
         <v>0.2</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <v>65</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="16">
         <v>0</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="16">
         <v>13</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="M12" s="8"/>
+      <c r="I12" s="12"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15">
+        <v>22</v>
+      </c>
+      <c r="C13" s="16">
         <v>0.75</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="16">
         <v>112</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="16">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="16">
         <v>7</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="16">
         <v>0</v>
       </c>
-      <c r="M13" s="8"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>9.2799642218246898</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15">
+        <v>23</v>
+      </c>
+      <c r="C14" s="16">
         <v>0.15</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="17">
         <v>188</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="16">
         <v>16</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="16">
         <v>7.7</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="16">
         <v>2</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <f>SUMPRODUCT(C10:C14,A10:A14)</f>
         <v>2.3177549194991052</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="18">
         <f>SUMPRODUCT(D10:D14,$A$10:$A$14)</f>
         <v>3063.8416815742394</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="18">
         <f>SUMPRODUCT(E10:E14,$A$10:$A$14)</f>
         <v>150.02236135957071</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="18">
         <f>SUMPRODUCT(F10:F14,$A$10:$A$14)</f>
         <v>100</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="18">
         <f>SUMPRODUCT(G10:G14,$A$10:$A$14)</f>
         <v>249.99999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="C16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="11">
         <v>2000</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>50</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>100</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="11">
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>11</v>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1002,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068C5785-3DE2-7B42-9C80-7E2A1D45009E}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1017,75 +1372,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="A3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="A4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1105,10 +1460,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="13"/>
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1126,211 +1481,239 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="15">
+        <v>19</v>
+      </c>
+      <c r="C10" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="16">
         <v>23</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="16">
         <v>0.1</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="16">
         <v>0.6</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16">
         <v>0.12</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <v>171</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16">
         <v>0.2</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="16">
         <v>3.7</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="16">
         <v>30</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="M11" s="8"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15">
+        <v>21</v>
+      </c>
+      <c r="C12" s="16">
         <v>0.2</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <v>65</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="16">
         <v>0</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="16">
         <v>13</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="M12" s="8"/>
+      <c r="I12" s="12"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15">
+        <v>22</v>
+      </c>
+      <c r="C13" s="16">
         <v>0.75</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="16">
         <v>112</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="16">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="16">
         <v>7</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="16">
         <v>0</v>
       </c>
-      <c r="M13" s="8"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="15">
+        <v>23</v>
+      </c>
+      <c r="C14" s="16">
         <v>0.15</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="17">
         <v>188</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="16">
         <v>16</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="16">
         <v>7.7</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="16">
         <v>2</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <f>SUMPRODUCT(C10:C14,A10:A14)</f>
         <v>2.4299999999999997</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="18">
         <f>SUMPRODUCT(D10:D14,$A$10:$A$14)</f>
         <v>3231</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="18">
         <f>SUMPRODUCT(E10:E14,$A$10:$A$14)</f>
         <v>145.80000000000001</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="18">
         <f>SUMPRODUCT(F10:F14,$A$10:$A$14)</f>
         <v>102.6</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="18">
         <f>SUMPRODUCT(G10:G14,$A$10:$A$14)</f>
         <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="C16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="11">
         <v>2000</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>50</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>100</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="11">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
     </row>
   </sheetData>
   <scenarios current="0">
@@ -1342,8 +1725,10 @@
       <inputCells r="A14" val="12.987012987013"/>
     </scenario>
   </scenarios>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
@@ -1354,4 +1739,644 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AE7F8A-EF78-4D45-9C23-F898677D94D8}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="22">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="27">
+        <v>8</v>
+      </c>
+      <c r="G3" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="22">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="27">
+        <v>20</v>
+      </c>
+      <c r="G4" s="27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="22">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E719E90-5300-F64F-AFEB-021EFBB1C68D}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="19">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="19">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" s="19">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="19">
+        <v>5</v>
+      </c>
+      <c r="D12" s="19">
+        <v>9</v>
+      </c>
+      <c r="E12" s="19">
+        <v>10</v>
+      </c>
+      <c r="F12" s="19">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20">
+        <f>SUMPRODUCT(L6:L9,I6:I9)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUMPRODUCT(C6:C9,$L$6:$L$9)</f>
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ref="D18:E18" si="0">SUMPRODUCT(D6:D9,$L$6:$L$9)</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
+        <f>SUMPRODUCT(F6:F9,$L$6:$L$9)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/assignment2_partB.xlsx
+++ b/assignment2_partB.xlsx
@@ -1,103 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucian/Library/CloudStorage/OneDrive-UvA/Statistics/assignment2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/VanshitaS/Desktop/UVA - Period 1/SSO /SO/Assignment 2/Assignment-2-SSO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3208491-D106-2847-BFF6-55AE5454E4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE80878-4C42-384D-B2ED-4B2D0DFEB2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="680" windowWidth="30160" windowHeight="18960" activeTab="1" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="25820" windowHeight="15700" activeTab="2" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3a_optimal_product_mix" sheetId="1" r:id="rId1"/>
     <sheet name="2.3c_optical_product_mix" sheetId="3" r:id="rId2"/>
+    <sheet name="2.3b_optimial_product_mix" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$A$10:$A$14</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$A$11:$A$16</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$A$10:$A$14</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$D$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$A$11:$A$15</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$A$10:$A$14</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$E$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$A$15</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$D$15</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$F$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$D$16</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$E$15</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$G$15</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$E$16</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$F$15</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$F$16</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$G$15</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$G$16</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$G$16</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">7</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$C$15</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$C$16</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$C$15</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$D$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$E$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$D$16</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$F$16</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$D$17</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$E$16</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$G$16</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$E$17</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$F$16</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$F$17</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$G$16</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$G$17</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$G$17</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -118,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
   <si>
     <t>Foods </t>
   </si>
@@ -193,6 +241,12 @@
   </si>
   <si>
     <t>minimize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are interested in finding the cheapest diet that satisfies the following (you can take </t>
+  </si>
+  <si>
+    <t>pb_cheap x5</t>
   </si>
 </sst>
 </file>
@@ -200,9 +254,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,6 +281,12 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -301,17 +361,17 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A626F52E-9D9C-5B41-B89A-093EFBA3A711}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,64 +721,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="A1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
@@ -729,7 +789,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -752,7 +812,7 @@
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
@@ -776,42 +836,42 @@
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>23</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>0.1</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>0.6</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <v>7.7146690518783503</v>
+        <v>7.7146690518783547</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>0.12</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>171</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>0.2</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>3.7</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <v>30</v>
       </c>
       <c r="I11" s="1"/>
@@ -824,19 +884,19 @@
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>0.2</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <v>65</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>0</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <v>13</v>
       </c>
       <c r="I12" s="11"/>
@@ -849,19 +909,19 @@
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>0.75</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <v>112</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>7</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <v>0</v>
       </c>
       <c r="M13" s="8"/>
@@ -873,19 +933,19 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>0.15</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>188</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>16</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>7.7</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <v>2</v>
       </c>
       <c r="M14" s="8"/>
@@ -893,23 +953,23 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
         <f>SUMPRODUCT(C10:C14,A10:A14)</f>
-        <v>2.3177549194991052</v>
-      </c>
-      <c r="D15" s="17">
+        <v>2.3177549194991061</v>
+      </c>
+      <c r="D15" s="15">
         <f>SUMPRODUCT(D10:D14,$A$10:$A$14)</f>
-        <v>3063.8416815742394</v>
-      </c>
-      <c r="E15" s="17">
+        <v>3063.8416815742403</v>
+      </c>
+      <c r="E15" s="15">
         <f>SUMPRODUCT(E10:E14,$A$10:$A$14)</f>
         <v>150.02236135957071</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <f>SUMPRODUCT(F10:F14,$A$10:$A$14)</f>
-        <v>100</v>
-      </c>
-      <c r="G15" s="17">
+        <v>100.00000000000003</v>
+      </c>
+      <c r="G15" s="15">
         <f>SUMPRODUCT(G10:G14,$A$10:$A$14)</f>
-        <v>249.99999999999989</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1004,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068C5785-3DE2-7B42-9C80-7E2A1D45009E}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1017,64 +1077,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
@@ -1085,7 +1145,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1108,7 +1168,7 @@
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1132,19 +1192,19 @@
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>23</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>0.1</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>0.6</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <v>6</v>
       </c>
     </row>
@@ -1155,19 +1215,19 @@
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>0.12</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>171</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>0.2</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>3.7</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <v>30</v>
       </c>
       <c r="I11" s="1"/>
@@ -1180,19 +1240,19 @@
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>0.2</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <v>65</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>0</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <v>13</v>
       </c>
       <c r="I12" s="11"/>
@@ -1205,19 +1265,19 @@
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>0.75</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <v>112</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>7</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <v>0</v>
       </c>
       <c r="M13" s="8"/>
@@ -1229,19 +1289,19 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>0.15</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>188</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>16</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>7.7</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <v>2</v>
       </c>
       <c r="M14" s="8"/>
@@ -1251,19 +1311,19 @@
         <f>SUMPRODUCT(C10:C14,A10:A14)</f>
         <v>2.4299999999999997</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <f>SUMPRODUCT(D10:D14,$A$10:$A$14)</f>
         <v>3231</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <f>SUMPRODUCT(E10:E14,$A$10:$A$14)</f>
         <v>145.80000000000001</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <f>SUMPRODUCT(F10:F14,$A$10:$A$14)</f>
         <v>102.6</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <f>SUMPRODUCT(G10:G14,$A$10:$A$14)</f>
         <v>288</v>
       </c>
@@ -1354,4 +1414,323 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D62A1C-2719-EA4E-B181-9338F34F0D88}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D11" s="13">
+        <v>23</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>16.621621621621657</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="D12" s="13">
+        <v>171</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="G12" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>65</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G13" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="13">
+        <v>112</v>
+      </c>
+      <c r="E14" s="13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F14" s="13">
+        <v>7</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="D15" s="14">
+        <v>188</v>
+      </c>
+      <c r="E15" s="13">
+        <v>16</v>
+      </c>
+      <c r="F15" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="5">
+        <f>SUMPRODUCT(C11:C15,A11:A15)</f>
+        <v>2.7445945945945986</v>
+      </c>
+      <c r="D16" s="5">
+        <f>SUMPRODUCT(D11:D15,$A$11:$A$15)</f>
+        <v>3782.2972972973034</v>
+      </c>
+      <c r="E16" s="5">
+        <f>SUMPRODUCT(E11:E15,$A$11:$A$15)</f>
+        <v>83.324324324324337</v>
+      </c>
+      <c r="F16" s="5">
+        <f>SUMPRODUCT(F11:F15,$A$11:$A$15)</f>
+        <v>100.00000000000014</v>
+      </c>
+      <c r="G16" s="5">
+        <f>SUMPRODUCT(G11:G15,$A$11:$A$15)</f>
+        <v>508.64864864864967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="10">
+        <v>50</v>
+      </c>
+      <c r="F17" s="10">
+        <v>100</v>
+      </c>
+      <c r="G17" s="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assignment2_partB.xlsx
+++ b/assignment2_partB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/VanshitaS/Desktop/UVA - Period 1/SSO /SO/Assignment 2/Assignment-2-SSO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE80878-4C42-384D-B2ED-4B2D0DFEB2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CC5F4B-6239-164B-A65F-F38D33A385BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="25820" windowHeight="15700" activeTab="2" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="2" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3a_optimal_product_mix" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068C5785-3DE2-7B42-9C80-7E2A1D45009E}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D62A1C-2719-EA4E-B181-9338F34F0D88}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1722,13 +1722,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G1:L1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G1:L1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assignment2_partB.xlsx
+++ b/assignment2_partB.xlsx
@@ -1,151 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/VanshitaS/Desktop/UVA - Period 1/SSO /SO/Assignment 2/Assignment-2-SSO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucian/Library/CloudStorage/OneDrive-UvA/Statistics/assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CC5F4B-6239-164B-A65F-F38D33A385BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A57734-719D-7A40-AA84-BF15D6F31BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="2" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
+    <workbookView xWindow="80" yWindow="680" windowWidth="30160" windowHeight="18960" activeTab="2" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3a_optimal_product_mix" sheetId="1" r:id="rId1"/>
     <sheet name="2.3c_optical_product_mix" sheetId="3" r:id="rId2"/>
-    <sheet name="2.3b_optimial_product_mix" sheetId="4" r:id="rId3"/>
+    <sheet name="2.5a_Call_Center_Staffing" sheetId="4" r:id="rId3"/>
+    <sheet name="Shift scheduling" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$A$10:$A$14</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$A$11:$A$16</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$A$10:$A$14</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'2.5a_Call_Center_Staffing'!$A$3:$B$26</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$D$15</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$A$11:$A$15</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$A$10:$A$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2.5a_Call_Center_Staffing'!$A$11:$A$26</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$E$15</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$A$15</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$D$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'2.5a_Call_Center_Staffing'!$A$3:$A$26</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$F$15</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$D$16</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$E$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'2.5a_Call_Center_Staffing'!$A$3:$A$26</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$G$15</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$E$16</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$F$15</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$F$16</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'2.5a_Call_Center_Staffing'!$B$20:$B$26</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$G$15</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$G$16</definedName>
-    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$G$16</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'2.5a_Call_Center_Staffing'!$B$3:$B$26</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'2.5a_Call_Center_Staffing'!$B$3:$B$26</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'2.5a_Call_Center_Staffing'!$E$3:$E$26</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">7</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$C$15</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$C$16</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$C$15</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'2.5a_Call_Center_Staffing'!$A$29</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">4</definedName>
     <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$D$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$E$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$D$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$F$16</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$D$17</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$E$16</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$G$16</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$E$17</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$F$16</definedName>
-    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$F$17</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">'2.3c_optical_product_mix'!$G$16</definedName>
-    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$G$17</definedName>
-    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'2.3b_optimial_product_mix'!$G$17</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'2.5a_Call_Center_Staffing'!$F$3:$F$26</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -165,8 +166,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
   <si>
     <t>Foods </t>
   </si>
@@ -189,6 +212,9 @@
     <t>Carbohydrate (g)</t>
   </si>
   <si>
+    <t>Objective</t>
+  </si>
+  <si>
     <t>Color coding:</t>
   </si>
   <si>
@@ -243,10 +269,196 @@
     <t>minimize</t>
   </si>
   <si>
-    <t xml:space="preserve">You are interested in finding the cheapest diet that satisfies the following (you can take </t>
-  </si>
-  <si>
-    <t>pb_cheap x5</t>
+    <t>Shift scheduling</t>
+  </si>
+  <si>
+    <t>a_{iu} = 1 if u in S_i, 0 else.</t>
+  </si>
+  <si>
+    <t>Time interval</t>
+  </si>
+  <si>
+    <t>9-10h</t>
+  </si>
+  <si>
+    <t>10-11h</t>
+  </si>
+  <si>
+    <t>11-12h</t>
+  </si>
+  <si>
+    <t>12-13h</t>
+  </si>
+  <si>
+    <t>Decision variables</t>
+  </si>
+  <si>
+    <t>Shift working time</t>
+  </si>
+  <si>
+    <t>Shift i \ Hour u</t>
+  </si>
+  <si>
+    <t>Shift i</t>
+  </si>
+  <si>
+    <t>Costs c_i</t>
+  </si>
+  <si>
+    <t>x_i</t>
+  </si>
+  <si>
+    <t>9-11h</t>
+  </si>
+  <si>
+    <t>10-12h</t>
+  </si>
+  <si>
+    <t>11-13h</t>
+  </si>
+  <si>
+    <t>9-13h</t>
+  </si>
+  <si>
+    <t>Hour u</t>
+  </si>
+  <si>
+    <t>Required staffing b_u</t>
+  </si>
+  <si>
+    <t>Restrictions</t>
+  </si>
+  <si>
+    <t>Number of workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considering the solution for part a was the optimal solution, with positive real numbers, any deviation from this would be less optimal. </t>
+  </si>
+  <si>
+    <t>For this reason, an optimal integer solution would not be able to properly minimize the objective function. Thus, the price/serving increased slightly, from ~2.31 to ~2.43.</t>
+  </si>
+  <si>
+    <t>09:00 - 09:30 </t>
+  </si>
+  <si>
+    <t>09:30 - 10:00 </t>
+  </si>
+  <si>
+    <t>10:00 - 10:30 </t>
+  </si>
+  <si>
+    <t>10:30 - 11:00 </t>
+  </si>
+  <si>
+    <t>11:00 - 11:30 </t>
+  </si>
+  <si>
+    <t>11:30 - 12:00 </t>
+  </si>
+  <si>
+    <t>12:00 - 12:30 </t>
+  </si>
+  <si>
+    <t>12:30 - 13:00 </t>
+  </si>
+  <si>
+    <t>13:00 - 13:30 </t>
+  </si>
+  <si>
+    <t>13:30 - 14:00 </t>
+  </si>
+  <si>
+    <t>14:00 - 14:30 </t>
+  </si>
+  <si>
+    <t>14:30 - 15:00 </t>
+  </si>
+  <si>
+    <t>15:00 - 15:30 </t>
+  </si>
+  <si>
+    <t>15:30 - 16:00 </t>
+  </si>
+  <si>
+    <t>16:00 - 16:30 </t>
+  </si>
+  <si>
+    <t>16:30 - 17:00 </t>
+  </si>
+  <si>
+    <t>17:00 - 17:30 </t>
+  </si>
+  <si>
+    <t>17:30 - 18:00 </t>
+  </si>
+  <si>
+    <t>18:00 - 18:30 </t>
+  </si>
+  <si>
+    <t>18:30 - 19:00 </t>
+  </si>
+  <si>
+    <t>19:00 - 19:30 </t>
+  </si>
+  <si>
+    <t>19:30 - 20:00 </t>
+  </si>
+  <si>
+    <t>20:00 - 20:30 </t>
+  </si>
+  <si>
+    <t>20:30 - 21:00</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>euros/hr</t>
+  </si>
+  <si>
+    <t>shift start</t>
+  </si>
+  <si>
+    <t>9:00-12:30</t>
+  </si>
+  <si>
+    <t>9:00-17:00</t>
+  </si>
+  <si>
+    <t>minimize salary cost</t>
+  </si>
+  <si>
+    <t>Objective = min (salary cost A + salary cost B)</t>
+  </si>
+  <si>
+    <t>salary cost = X * worker type salary</t>
+  </si>
+  <si>
+    <t>Time slots (U)</t>
+  </si>
+  <si>
+    <t>Start slot (s)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t># Type B STARTING at shift s (Xb)</t>
+  </si>
+  <si>
+    <t># Type A STARTING at shift s (Xa)</t>
+  </si>
+  <si>
+    <t>Shift type A</t>
+  </si>
+  <si>
+    <t>Shift type B</t>
+  </si>
+  <si>
+    <t># workers on slot s</t>
+  </si>
+  <si>
+    <t>Required # of workers on slot s</t>
   </si>
 </sst>
 </file>
@@ -254,9 +466,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,6 +483,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -283,13 +503,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +547,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -339,18 +572,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -361,17 +596,61 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,6 +666,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>434344</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>158259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAAB91C-900F-0343-A143-1F1F3085E2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4876800"/>
+          <a:ext cx="5361944" cy="5847859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>148726</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8539536-B1C3-D445-A255-F6E88CC6B139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5854701" y="2222500"/>
+          <a:ext cx="4390525" cy="3350901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438242</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419084</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77E6C52-300A-BA4C-B141-163512BC0DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10356942" y="2030505"/>
+          <a:ext cx="4933842" cy="3862295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A626F52E-9D9C-5B41-B89A-093EFBA3A711}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,75 +1137,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -809,10 +1225,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="15"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
@@ -830,210 +1246,210 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="14">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="13">
+        <v>19</v>
+      </c>
+      <c r="C10" s="17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="17">
         <v>23</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="17">
         <v>0.1</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="17">
         <v>0.6</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>7.7146690518783547</v>
+      <c r="A11" s="14">
+        <v>7.7146690518783503</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="13">
+        <v>20</v>
+      </c>
+      <c r="C11" s="17">
         <v>0.12</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="17">
         <v>171</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="17">
         <v>0.2</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="17">
         <v>3.7</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="17">
         <v>30</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="M11" s="8"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="14">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="13">
+        <v>21</v>
+      </c>
+      <c r="C12" s="17">
         <v>0.2</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="17">
         <v>65</v>
       </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="17">
         <v>13</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="M12" s="8"/>
+      <c r="I12" s="13"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="14">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="13">
+        <v>22</v>
+      </c>
+      <c r="C13" s="17">
         <v>0.75</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="17">
         <v>112</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="17">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="17">
         <v>7</v>
       </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8"/>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="14">
         <v>9.2799642218246898</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="13">
+        <v>23</v>
+      </c>
+      <c r="C14" s="17">
         <v>0.15</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="18">
         <v>188</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="17">
         <v>16</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="17">
         <v>7.7</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="17">
         <v>2</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <f>SUMPRODUCT(C10:C14,A10:A14)</f>
-        <v>2.3177549194991061</v>
-      </c>
-      <c r="D15" s="15">
+        <v>2.3177549194991052</v>
+      </c>
+      <c r="D15" s="19">
         <f>SUMPRODUCT(D10:D14,$A$10:$A$14)</f>
-        <v>3063.8416815742403</v>
-      </c>
-      <c r="E15" s="15">
+        <v>3063.8416815742394</v>
+      </c>
+      <c r="E15" s="19">
         <f>SUMPRODUCT(E10:E14,$A$10:$A$14)</f>
         <v>150.02236135957071</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="19">
         <f>SUMPRODUCT(F10:F14,$A$10:$A$14)</f>
-        <v>100.00000000000003</v>
-      </c>
-      <c r="G15" s="15">
+        <v>100</v>
+      </c>
+      <c r="G15" s="19">
         <f>SUMPRODUCT(G10:G14,$A$10:$A$14)</f>
-        <v>250</v>
+        <v>249.99999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="C16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="12">
         <v>2000</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="12">
         <v>50</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="12">
         <v>100</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="12">
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>11</v>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1062,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068C5785-3DE2-7B42-9C80-7E2A1D45009E}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,75 +1493,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1165,10 +1581,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="15"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1186,211 +1602,239 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="14">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="13">
+        <v>19</v>
+      </c>
+      <c r="C10" s="17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="17">
         <v>23</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="17">
         <v>0.1</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="17">
         <v>0.6</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="13">
+        <v>20</v>
+      </c>
+      <c r="C11" s="17">
         <v>0.12</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="17">
         <v>171</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="17">
         <v>0.2</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="17">
         <v>3.7</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="17">
         <v>30</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="M11" s="8"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="14">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="13">
+        <v>21</v>
+      </c>
+      <c r="C12" s="17">
         <v>0.2</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="17">
         <v>65</v>
       </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="17">
         <v>13</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="M12" s="8"/>
+      <c r="I12" s="13"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="14">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="13">
+        <v>22</v>
+      </c>
+      <c r="C13" s="17">
         <v>0.75</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="17">
         <v>112</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="17">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="17">
         <v>7</v>
       </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8"/>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="14">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="13">
+        <v>23</v>
+      </c>
+      <c r="C14" s="17">
         <v>0.15</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="18">
         <v>188</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="17">
         <v>16</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="17">
         <v>7.7</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="17">
         <v>2</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <f>SUMPRODUCT(C10:C14,A10:A14)</f>
         <v>2.4299999999999997</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="19">
         <f>SUMPRODUCT(D10:D14,$A$10:$A$14)</f>
         <v>3231</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="19">
         <f>SUMPRODUCT(E10:E14,$A$10:$A$14)</f>
         <v>145.80000000000001</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="19">
         <f>SUMPRODUCT(F10:F14,$A$10:$A$14)</f>
         <v>102.6</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="19">
         <f>SUMPRODUCT(G10:G14,$A$10:$A$14)</f>
         <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="C16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="12">
         <v>2000</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="12">
         <v>50</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="12">
         <v>100</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="12">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
     </row>
   </sheetData>
   <scenarios current="0">
@@ -1402,8 +1846,10 @@
       <inputCells r="A14" val="12.987012987013"/>
     </scenario>
   </scenarios>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
@@ -1417,320 +1863,1014 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D62A1C-2719-EA4E-B181-9338F34F0D88}">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AE7F8A-EF78-4D45-9C23-F898677D94D8}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17" style="25" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="31">
+        <v>9</v>
+      </c>
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="29" cm="1">
+        <f t="array" ref="E3">SUMPRODUCT(($C$3:$C$26&gt;=C3-7)*($C$3:$C$26&lt;=C3), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C3-16)*($C$3:$C$26&lt;=C3-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C3-7))*($C$3:$C$26&lt;=C3), $B$3:$B$26)</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="31">
+        <v>0</v>
+      </c>
+      <c r="B4" s="31">
+        <v>5</v>
+      </c>
+      <c r="C4" s="27">
+        <v>2</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="29" cm="1">
+        <f t="array" ref="E4">SUMPRODUCT(($C$3:$C$26&gt;=C4-7)*($C$3:$C$26&lt;=C4), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C4-16)*($C$3:$C$26&lt;=C4-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C4-7))*($C$3:$C$26&lt;=C4), $B$3:$B$26)</f>
+        <v>15</v>
+      </c>
+      <c r="F4" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="31">
+        <v>0</v>
+      </c>
+      <c r="B5" s="31">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27">
+        <v>3</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="29" cm="1">
+        <f t="array" ref="E5">SUMPRODUCT(($C$3:$C$26&gt;=C5-7)*($C$3:$C$26&lt;=C5), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C5-16)*($C$3:$C$26&lt;=C5-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C5-7))*($C$3:$C$26&lt;=C5), $B$3:$B$26)</f>
+        <v>15</v>
+      </c>
+      <c r="F5" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="31">
+        <v>1</v>
+      </c>
+      <c r="B6" s="31">
+        <v>0</v>
+      </c>
+      <c r="C6" s="27">
+        <v>4</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="29" cm="1">
+        <f t="array" ref="E6">SUMPRODUCT(($C$3:$C$26&gt;=C6-7)*($C$3:$C$26&lt;=C6), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C6-16)*($C$3:$C$26&lt;=C6-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C6-7))*($C$3:$C$26&lt;=C6), $B$3:$B$26)</f>
+        <v>16</v>
+      </c>
+      <c r="F6" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="31">
+        <v>0</v>
+      </c>
+      <c r="B7" s="31">
+        <v>0</v>
+      </c>
+      <c r="C7" s="27">
+        <v>5</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="29" cm="1">
+        <f t="array" ref="E7">SUMPRODUCT(($C$3:$C$26&gt;=C7-7)*($C$3:$C$26&lt;=C7), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C7-16)*($C$3:$C$26&lt;=C7-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C7-7))*($C$3:$C$26&lt;=C7), $B$3:$B$26)</f>
+        <v>16</v>
+      </c>
+      <c r="F7" s="23">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <v>0</v>
+      </c>
+      <c r="B8" s="31">
+        <v>0</v>
+      </c>
+      <c r="C8" s="27">
+        <v>6</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="29" cm="1">
+        <f t="array" ref="E8">SUMPRODUCT(($C$3:$C$26&gt;=C8-7)*($C$3:$C$26&lt;=C8), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C8-16)*($C$3:$C$26&lt;=C8-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C8-7))*($C$3:$C$26&lt;=C8), $B$3:$B$26)</f>
+        <v>16</v>
+      </c>
+      <c r="F8" s="23">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="26">
+        <v>8</v>
+      </c>
+      <c r="J8" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="31">
+        <v>0</v>
+      </c>
+      <c r="B9" s="31">
+        <v>0</v>
+      </c>
+      <c r="C9" s="27">
+        <v>7</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="29" cm="1">
+        <f t="array" ref="E9">SUMPRODUCT(($C$3:$C$26&gt;=C9-7)*($C$3:$C$26&lt;=C9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C9-16)*($C$3:$C$26&lt;=C9-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C9-7))*($C$3:$C$26&lt;=C9), $B$3:$B$26)</f>
+        <v>16</v>
+      </c>
+      <c r="F9" s="23">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="26">
+        <v>20</v>
+      </c>
+      <c r="J9" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="31">
+        <v>0</v>
+      </c>
+      <c r="C10" s="27">
+        <v>8</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="29" cm="1">
+        <f t="array" ref="E10">SUMPRODUCT(($C$3:$C$26&gt;=C10-7)*($C$3:$C$26&lt;=C10), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C10-16)*($C$3:$C$26&lt;=C10-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C10-7))*($C$3:$C$26&lt;=C10), $B$3:$B$26)</f>
+        <v>20</v>
+      </c>
+      <c r="F10" s="23">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="31">
+        <v>0</v>
+      </c>
+      <c r="C11" s="27">
+        <v>9</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="29" cm="1">
+        <f t="array" ref="E11">SUMPRODUCT(($C$3:$C$26&gt;=C11-7)*($C$3:$C$26&lt;=C11), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C11-16)*($C$3:$C$26&lt;=C11-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C11-7))*($C$3:$C$26&lt;=C11), $B$3:$B$26)</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="31">
+        <v>0</v>
+      </c>
+      <c r="C12" s="27">
+        <v>10</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="29" cm="1">
+        <f t="array" ref="E12">SUMPRODUCT(($C$3:$C$26&gt;=C12-7)*($C$3:$C$26&lt;=C12), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C12-16)*($C$3:$C$26&lt;=C12-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C12-7))*($C$3:$C$26&lt;=C12), $B$3:$B$26)</f>
+        <v>14</v>
+      </c>
+      <c r="F12" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="31">
+        <v>0</v>
+      </c>
+      <c r="C13" s="27">
+        <v>11</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="29" cm="1">
+        <f t="array" ref="E13">SUMPRODUCT(($C$3:$C$26&gt;=C13-7)*($C$3:$C$26&lt;=C13), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C13-16)*($C$3:$C$26&lt;=C13-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C13-7))*($C$3:$C$26&lt;=C13), $B$3:$B$26)</f>
+        <v>14</v>
+      </c>
+      <c r="F13" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="31">
+        <v>0</v>
+      </c>
+      <c r="C14" s="27">
+        <v>12</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="29" cm="1">
+        <f t="array" ref="E14">SUMPRODUCT(($C$3:$C$26&gt;=C14-7)*($C$3:$C$26&lt;=C14), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C14-16)*($C$3:$C$26&lt;=C14-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C14-7))*($C$3:$C$26&lt;=C14), $B$3:$B$26)</f>
+        <v>13</v>
+      </c>
+      <c r="F14" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="31">
+        <v>0</v>
+      </c>
+      <c r="C15" s="27">
+        <v>13</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="29" cm="1">
+        <f t="array" ref="E15">SUMPRODUCT(($C$3:$C$26&gt;=C15-7)*($C$3:$C$26&lt;=C15), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C15-16)*($C$3:$C$26&lt;=C15-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C15-7))*($C$3:$C$26&lt;=C15), $B$3:$B$26)</f>
+        <v>14</v>
+      </c>
+      <c r="F15" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="31">
+        <v>0</v>
+      </c>
+      <c r="C16" s="27">
+        <v>14</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="29" cm="1">
+        <f t="array" ref="E16">SUMPRODUCT(($C$3:$C$26&gt;=C16-7)*($C$3:$C$26&lt;=C16), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C16-16)*($C$3:$C$26&lt;=C16-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C16-7))*($C$3:$C$26&lt;=C16), $B$3:$B$26)</f>
+        <v>14</v>
+      </c>
+      <c r="F16" s="23">
+        <v>14</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="31">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27">
+        <v>15</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="29" cm="1">
+        <f t="array" ref="E17">SUMPRODUCT(($C$3:$C$26&gt;=C17-7)*($C$3:$C$26&lt;=C17), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C17-16)*($C$3:$C$26&lt;=C17-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C17-7))*($C$3:$C$26&lt;=C17), $B$3:$B$26)</f>
+        <v>15</v>
+      </c>
+      <c r="F17" s="23">
+        <v>13</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="31">
+        <v>0</v>
+      </c>
+      <c r="C18" s="27">
+        <v>16</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="29" cm="1">
+        <f t="array" ref="E18">SUMPRODUCT(($C$3:$C$26&gt;=C18-7)*($C$3:$C$26&lt;=C18), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C18-16)*($C$3:$C$26&lt;=C18-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C18-7))*($C$3:$C$26&lt;=C18), $B$3:$B$26)</f>
+        <v>11</v>
+      </c>
+      <c r="F18" s="23">
+        <v>11</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="31">
+        <v>4</v>
+      </c>
+      <c r="C19" s="27">
+        <v>17</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="29" cm="1">
+        <f t="array" ref="E19">SUMPRODUCT(($C$3:$C$26&gt;=C19-7)*($C$3:$C$26&lt;=C19), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C19-16)*($C$3:$C$26&lt;=C19-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C19-7))*($C$3:$C$26&lt;=C19), $B$3:$B$26)</f>
+        <v>19</v>
+      </c>
+      <c r="F19" s="23">
+        <v>10</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="27">
+        <v>18</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="29" cm="1">
+        <f t="array" ref="E20">SUMPRODUCT(($C$3:$C$26&gt;=C20-7)*($C$3:$C$26&lt;=C20), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C20-16)*($C$3:$C$26&lt;=C20-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C20-7))*($C$3:$C$26&lt;=C20), $B$3:$B$26)</f>
+        <v>10</v>
+      </c>
+      <c r="F20" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="27">
+        <v>19</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="29" cm="1">
+        <f t="array" ref="E21">SUMPRODUCT(($C$3:$C$26&gt;=C21-7)*($C$3:$C$26&lt;=C21), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C21-16)*($C$3:$C$26&lt;=C21-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C21-7))*($C$3:$C$26&lt;=C21), $B$3:$B$26)</f>
+        <v>10</v>
+      </c>
+      <c r="F21" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="27">
+        <v>20</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="29" cm="1">
+        <f t="array" ref="E22">SUMPRODUCT(($C$3:$C$26&gt;=C22-7)*($C$3:$C$26&lt;=C22), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C22-16)*($C$3:$C$26&lt;=C22-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C22-7))*($C$3:$C$26&lt;=C22), $B$3:$B$26)</f>
+        <v>10</v>
+      </c>
+      <c r="F22" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="27">
+        <v>21</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="29" cm="1">
+        <f t="array" ref="E23">SUMPRODUCT(($C$3:$C$26&gt;=C23-7)*($C$3:$C$26&lt;=C23), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C23-16)*($C$3:$C$26&lt;=C23-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C23-7))*($C$3:$C$26&lt;=C23), $B$3:$B$26)</f>
+        <v>9</v>
+      </c>
+      <c r="F23" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="27">
+        <v>22</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="29" cm="1">
+        <f t="array" ref="E24">SUMPRODUCT(($C$3:$C$26&gt;=C24-7)*($C$3:$C$26&lt;=C24), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C24-16)*($C$3:$C$26&lt;=C24-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C24-7))*($C$3:$C$26&lt;=C24), $B$3:$B$26)</f>
+        <v>9</v>
+      </c>
+      <c r="F24" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="27">
+        <v>23</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="29" cm="1">
+        <f t="array" ref="E25">SUMPRODUCT(($C$3:$C$26&gt;=C25-7)*($C$3:$C$26&lt;=C25), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C25-16)*($C$3:$C$26&lt;=C25-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C25-7))*($C$3:$C$26&lt;=C25), $B$3:$B$26)</f>
+        <v>8</v>
+      </c>
+      <c r="F25" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="27">
+        <v>24</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="29" cm="1">
+        <f t="array" ref="E26">SUMPRODUCT(($C$3:$C$26&gt;=C26-7)*($C$3:$C$26&lt;=C26), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C26-16)*($C$3:$C$26&lt;=C26-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C26-7))*($C$3:$C$26&lt;=C26), $B$3:$B$26)</f>
+        <v>8</v>
+      </c>
+      <c r="F26" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="33">
+        <f>20*8*SUM($A$3:$A$10) + 24*4*SUM($B$3:$B$19)</f>
+        <v>3296</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E719E90-5300-F64F-AFEB-021EFBB1C68D}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="20">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="20">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" s="20">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="20">
+        <v>5</v>
+      </c>
+      <c r="D12" s="20">
+        <v>9</v>
+      </c>
+      <c r="E12" s="20">
+        <v>10</v>
+      </c>
+      <c r="F12" s="20">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="21">
+        <f>SUMPRODUCT(L6:L9,I6:I9)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUMPRODUCT(C6:C9,$L$6:$L$9)</f>
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ref="D18:E18" si="0">SUMPRODUCT(D6:D9,$L$6:$L$9)</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
+        <f>SUMPRODUCT(F6:F9,$L$6:$L$9)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D11" s="13">
-        <v>23</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>16.621621621621657</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="D12" s="13">
-        <v>171</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="G12" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="13">
-        <v>65</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G13" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="D14" s="13">
-        <v>112</v>
-      </c>
-      <c r="E14" s="13">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F14" s="13">
-        <v>7</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="D15" s="14">
-        <v>188</v>
-      </c>
-      <c r="E15" s="13">
-        <v>16</v>
-      </c>
-      <c r="F15" s="13">
-        <v>7.7</v>
-      </c>
-      <c r="G15" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="5">
-        <f>SUMPRODUCT(C11:C15,A11:A15)</f>
-        <v>2.7445945945945986</v>
-      </c>
-      <c r="D16" s="5">
-        <f>SUMPRODUCT(D11:D15,$A$11:$A$15)</f>
-        <v>3782.2972972973034</v>
-      </c>
-      <c r="E16" s="5">
-        <f>SUMPRODUCT(E11:E15,$A$11:$A$15)</f>
-        <v>83.324324324324337</v>
-      </c>
-      <c r="F16" s="5">
-        <f>SUMPRODUCT(F11:F15,$A$11:$A$15)</f>
-        <v>100.00000000000014</v>
-      </c>
-      <c r="G16" s="5">
-        <f>SUMPRODUCT(G11:G15,$A$11:$A$15)</f>
-        <v>508.64864864864967</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2000</v>
-      </c>
-      <c r="E17" s="10">
-        <v>50</v>
-      </c>
-      <c r="F17" s="10">
-        <v>100</v>
-      </c>
-      <c r="G17" s="10">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assignment2_partB.xlsx
+++ b/assignment2_partB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/VanshitaS/Desktop/UVA - Period 1/SSO /SO/Assignment 2/Assignment-2-SSO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CC5F4B-6239-164B-A65F-F38D33A385BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E78E19-7B5B-A547-8DCD-4D87445BC547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="2" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3a_optimal_product_mix" sheetId="1" r:id="rId1"/>
@@ -133,8 +133,8 @@
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D62A1C-2719-EA4E-B181-9338F34F0D88}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1433,6 +1433,7 @@
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1658,6 +1659,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="5">
         <f>SUMPRODUCT(C11:C15,A11:A15)</f>

--- a/assignment2_partB.xlsx
+++ b/assignment2_partB.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/VanshitaS/Desktop/UVA - Period 1/SSO /SO/Assignment 2/Assignment-2-SSO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucian/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E78E19-7B5B-A547-8DCD-4D87445BC547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B01A20B-B99D-564C-885D-C7E28BAD1838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
+    <workbookView xWindow="80" yWindow="680" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{4E1BD276-A7DD-3C43-9B09-7B12A178A663}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3a_optimal_product_mix" sheetId="1" r:id="rId1"/>
     <sheet name="2.3c_optical_product_mix" sheetId="3" r:id="rId2"/>
     <sheet name="2.3b_optimial_product_mix" sheetId="4" r:id="rId3"/>
+    <sheet name="2.5a_Call_Center_Staffing" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3a_optimal_product_mix'!$A$10:$A$14</definedName>
@@ -165,8 +166,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>Foods </t>
   </si>
@@ -247,6 +270,135 @@
   </si>
   <si>
     <t>pb_cheap x5</t>
+  </si>
+  <si>
+    <t># Type A STARTING at shift s (Xa)</t>
+  </si>
+  <si>
+    <t># Type B STARTING at shift s (Xb)</t>
+  </si>
+  <si>
+    <t>Start slot (s)</t>
+  </si>
+  <si>
+    <t>Time slots (U)</t>
+  </si>
+  <si>
+    <t># workers taken on slot s</t>
+  </si>
+  <si>
+    <t>Minimum # of workers on slot s</t>
+  </si>
+  <si>
+    <t>09:00 - 09:30 </t>
+  </si>
+  <si>
+    <t>09:30 - 10:00 </t>
+  </si>
+  <si>
+    <t>10:00 - 10:30 </t>
+  </si>
+  <si>
+    <t>10:30 - 11:00 </t>
+  </si>
+  <si>
+    <t>11:00 - 11:30 </t>
+  </si>
+  <si>
+    <t>Shift type A</t>
+  </si>
+  <si>
+    <t>Shift type B</t>
+  </si>
+  <si>
+    <t>11:30 - 12:00 </t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>12:00 - 12:30 </t>
+  </si>
+  <si>
+    <t>euros/hr</t>
+  </si>
+  <si>
+    <t>12:30 - 13:00 </t>
+  </si>
+  <si>
+    <t>shift start</t>
+  </si>
+  <si>
+    <t>9:00-12:30</t>
+  </si>
+  <si>
+    <t>9:00-17:00</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>13:00 - 13:30 </t>
+  </si>
+  <si>
+    <t>13:30 - 14:00 </t>
+  </si>
+  <si>
+    <t>14:00 - 14:30 </t>
+  </si>
+  <si>
+    <t>14:30 - 15:00 </t>
+  </si>
+  <si>
+    <t>15:00 - 15:30 </t>
+  </si>
+  <si>
+    <t>15:30 - 16:00 </t>
+  </si>
+  <si>
+    <t>16:00 - 16:30 </t>
+  </si>
+  <si>
+    <t>16:30 - 17:00 </t>
+  </si>
+  <si>
+    <t>17:00 - 17:30 </t>
+  </si>
+  <si>
+    <t>minimize salary cost</t>
+  </si>
+  <si>
+    <t>17:30 - 18:00 </t>
+  </si>
+  <si>
+    <t>18:00 - 18:30 </t>
+  </si>
+  <si>
+    <t>18:30 - 19:00 </t>
+  </si>
+  <si>
+    <t>19:00 - 19:30 </t>
+  </si>
+  <si>
+    <t>19:30 - 20:00 </t>
+  </si>
+  <si>
+    <t>20:00 - 20:30 </t>
+  </si>
+  <si>
+    <t>20:30 - 21:00</t>
+  </si>
+  <si>
+    <t>salary cost = X * worker type salary</t>
+  </si>
+  <si>
+    <t>Objective = min (salary cost A + salary cost B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considering the solution for part a was the optimal solution, with positive real numbers, any deviation from this would be less optimal. </t>
+  </si>
+  <si>
+    <t>For this reason, an optimal integer solution would not be able to properly minimize the objective function. Thus, the price/serving increased slightly, from ~2.31 to ~2.43.</t>
   </si>
 </sst>
 </file>
@@ -256,7 +408,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,6 +439,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -339,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -372,6 +531,40 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068C5785-3DE2-7B42-9C80-7E2A1D45009E}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1346,7 +1539,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1354,7 +1547,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1367,7 +1560,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1570,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1387,10 +1580,38 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
     </row>
   </sheetData>
   <scenarios current="0">
@@ -1402,7 +1623,9 @@
       <inputCells r="A14" val="12.987012987013"/>
     </scenario>
   </scenarios>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -1420,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D62A1C-2719-EA4E-B181-9338F34F0D88}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1737,4 +1960,692 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93A1D2-9188-D24E-B628-0EE0619AF22C}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="7" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17" style="22" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>9</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="24" cm="1">
+        <f t="array" ref="E3">SUMPRODUCT(($C$3:$C$26&gt;=C3-7)*($C$3:$C$26&lt;=C3), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C3-16)*($C$3:$C$26&lt;=C3-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C3-7))*($C$3:$C$26&lt;=C3), $B$3:$B$26)</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>0</v>
+      </c>
+      <c r="B4" s="21">
+        <v>5</v>
+      </c>
+      <c r="C4" s="22">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="24" cm="1">
+        <f t="array" ref="E4">SUMPRODUCT(($C$3:$C$26&gt;=C4-7)*($C$3:$C$26&lt;=C4), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C4-16)*($C$3:$C$26&lt;=C4-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C4-7))*($C$3:$C$26&lt;=C4), $B$3:$B$26)</f>
+        <v>15</v>
+      </c>
+      <c r="F4" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>0</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>3</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="24" cm="1">
+        <f t="array" ref="E5">SUMPRODUCT(($C$3:$C$26&gt;=C5-7)*($C$3:$C$26&lt;=C5), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C5-16)*($C$3:$C$26&lt;=C5-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C5-7))*($C$3:$C$26&lt;=C5), $B$3:$B$26)</f>
+        <v>15</v>
+      </c>
+      <c r="F5" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
+        <v>4</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="24" cm="1">
+        <f t="array" ref="E6">SUMPRODUCT(($C$3:$C$26&gt;=C6-7)*($C$3:$C$26&lt;=C6), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C6-16)*($C$3:$C$26&lt;=C6-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C6-7))*($C$3:$C$26&lt;=C6), $B$3:$B$26)</f>
+        <v>16</v>
+      </c>
+      <c r="F6" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
+        <v>5</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="24" cm="1">
+        <f t="array" ref="E7">SUMPRODUCT(($C$3:$C$26&gt;=C7-7)*($C$3:$C$26&lt;=C7), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C7-16)*($C$3:$C$26&lt;=C7-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C7-7))*($C$3:$C$26&lt;=C7), $B$3:$B$26)</f>
+        <v>16</v>
+      </c>
+      <c r="F7" s="23">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>0</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <v>6</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="24" cm="1">
+        <f t="array" ref="E8">SUMPRODUCT(($C$3:$C$26&gt;=C8-7)*($C$3:$C$26&lt;=C8), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C8-16)*($C$3:$C$26&lt;=C8-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C8-7))*($C$3:$C$26&lt;=C8), $B$3:$B$26)</f>
+        <v>16</v>
+      </c>
+      <c r="F8" s="23">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="25">
+        <v>8</v>
+      </c>
+      <c r="J8" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <v>0</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22">
+        <v>7</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="24" cm="1">
+        <f t="array" ref="E9">SUMPRODUCT(($C$3:$C$26&gt;=C9-7)*($C$3:$C$26&lt;=C9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C9-16)*($C$3:$C$26&lt;=C9-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C9-7))*($C$3:$C$26&lt;=C9), $B$3:$B$26)</f>
+        <v>16</v>
+      </c>
+      <c r="F9" s="23">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="25">
+        <v>20</v>
+      </c>
+      <c r="J9" s="25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>4</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22">
+        <v>8</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="24" cm="1">
+        <f t="array" ref="E10">SUMPRODUCT(($C$3:$C$26&gt;=C10-7)*($C$3:$C$26&lt;=C10), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C10-16)*($C$3:$C$26&lt;=C10-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C10-7))*($C$3:$C$26&lt;=C10), $B$3:$B$26)</f>
+        <v>20</v>
+      </c>
+      <c r="F10" s="23">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22">
+        <v>9</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="24" cm="1">
+        <f t="array" ref="E11">SUMPRODUCT(($C$3:$C$26&gt;=C11-7)*($C$3:$C$26&lt;=C11), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C11-16)*($C$3:$C$26&lt;=C11-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C11-7))*($C$3:$C$26&lt;=C11), $B$3:$B$26)</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22">
+        <v>10</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="24" cm="1">
+        <f t="array" ref="E12">SUMPRODUCT(($C$3:$C$26&gt;=C12-7)*($C$3:$C$26&lt;=C12), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C12-16)*($C$3:$C$26&lt;=C12-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C12-7))*($C$3:$C$26&lt;=C12), $B$3:$B$26)</f>
+        <v>14</v>
+      </c>
+      <c r="F12" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
+        <v>11</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="24" cm="1">
+        <f t="array" ref="E13">SUMPRODUCT(($C$3:$C$26&gt;=C13-7)*($C$3:$C$26&lt;=C13), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C13-16)*($C$3:$C$26&lt;=C13-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C13-7))*($C$3:$C$26&lt;=C13), $B$3:$B$26)</f>
+        <v>14</v>
+      </c>
+      <c r="F13" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0</v>
+      </c>
+      <c r="C14" s="22">
+        <v>12</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="24" cm="1">
+        <f t="array" ref="E14">SUMPRODUCT(($C$3:$C$26&gt;=C14-7)*($C$3:$C$26&lt;=C14), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C14-16)*($C$3:$C$26&lt;=C14-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C14-7))*($C$3:$C$26&lt;=C14), $B$3:$B$26)</f>
+        <v>13</v>
+      </c>
+      <c r="F14" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
+        <v>13</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="24" cm="1">
+        <f t="array" ref="E15">SUMPRODUCT(($C$3:$C$26&gt;=C15-7)*($C$3:$C$26&lt;=C15), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C15-16)*($C$3:$C$26&lt;=C15-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C15-7))*($C$3:$C$26&lt;=C15), $B$3:$B$26)</f>
+        <v>14</v>
+      </c>
+      <c r="F15" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22">
+        <v>14</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="24" cm="1">
+        <f t="array" ref="E16">SUMPRODUCT(($C$3:$C$26&gt;=C16-7)*($C$3:$C$26&lt;=C16), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C16-16)*($C$3:$C$26&lt;=C16-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C16-7))*($C$3:$C$26&lt;=C16), $B$3:$B$26)</f>
+        <v>14</v>
+      </c>
+      <c r="F16" s="23">
+        <v>14</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="21">
+        <v>1</v>
+      </c>
+      <c r="C17" s="22">
+        <v>15</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="24" cm="1">
+        <f t="array" ref="E17">SUMPRODUCT(($C$3:$C$26&gt;=C17-7)*($C$3:$C$26&lt;=C17), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C17-16)*($C$3:$C$26&lt;=C17-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C17-7))*($C$3:$C$26&lt;=C17), $B$3:$B$26)</f>
+        <v>15</v>
+      </c>
+      <c r="F17" s="23">
+        <v>13</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="21">
+        <v>0</v>
+      </c>
+      <c r="C18" s="22">
+        <v>16</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="24" cm="1">
+        <f t="array" ref="E18">SUMPRODUCT(($C$3:$C$26&gt;=C18-7)*($C$3:$C$26&lt;=C18), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C18-16)*($C$3:$C$26&lt;=C18-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C18-7))*($C$3:$C$26&lt;=C18), $B$3:$B$26)</f>
+        <v>11</v>
+      </c>
+      <c r="F18" s="23">
+        <v>11</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="21">
+        <v>4</v>
+      </c>
+      <c r="C19" s="22">
+        <v>17</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="24" cm="1">
+        <f t="array" ref="E19">SUMPRODUCT(($C$3:$C$26&gt;=C19-7)*($C$3:$C$26&lt;=C19), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C19-16)*($C$3:$C$26&lt;=C19-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C19-7))*($C$3:$C$26&lt;=C19), $B$3:$B$26)</f>
+        <v>19</v>
+      </c>
+      <c r="F19" s="23">
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="22">
+        <v>18</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="24" cm="1">
+        <f t="array" ref="E20">SUMPRODUCT(($C$3:$C$26&gt;=C20-7)*($C$3:$C$26&lt;=C20), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C20-16)*($C$3:$C$26&lt;=C20-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C20-7))*($C$3:$C$26&lt;=C20), $B$3:$B$26)</f>
+        <v>10</v>
+      </c>
+      <c r="F20" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="22">
+        <v>19</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="24" cm="1">
+        <f t="array" ref="E21">SUMPRODUCT(($C$3:$C$26&gt;=C21-7)*($C$3:$C$26&lt;=C21), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C21-16)*($C$3:$C$26&lt;=C21-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C21-7))*($C$3:$C$26&lt;=C21), $B$3:$B$26)</f>
+        <v>10</v>
+      </c>
+      <c r="F21" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="22">
+        <v>20</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="24" cm="1">
+        <f t="array" ref="E22">SUMPRODUCT(($C$3:$C$26&gt;=C22-7)*($C$3:$C$26&lt;=C22), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C22-16)*($C$3:$C$26&lt;=C22-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C22-7))*($C$3:$C$26&lt;=C22), $B$3:$B$26)</f>
+        <v>10</v>
+      </c>
+      <c r="F22" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="22">
+        <v>21</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="24" cm="1">
+        <f t="array" ref="E23">SUMPRODUCT(($C$3:$C$26&gt;=C23-7)*($C$3:$C$26&lt;=C23), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C23-16)*($C$3:$C$26&lt;=C23-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C23-7))*($C$3:$C$26&lt;=C23), $B$3:$B$26)</f>
+        <v>9</v>
+      </c>
+      <c r="F23" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="22">
+        <v>22</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="24" cm="1">
+        <f t="array" ref="E24">SUMPRODUCT(($C$3:$C$26&gt;=C24-7)*($C$3:$C$26&lt;=C24), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C24-16)*($C$3:$C$26&lt;=C24-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C24-7))*($C$3:$C$26&lt;=C24), $B$3:$B$26)</f>
+        <v>9</v>
+      </c>
+      <c r="F24" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="22">
+        <v>23</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="24" cm="1">
+        <f t="array" ref="E25">SUMPRODUCT(($C$3:$C$26&gt;=C25-7)*($C$3:$C$26&lt;=C25), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C25-16)*($C$3:$C$26&lt;=C25-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C25-7))*($C$3:$C$26&lt;=C25), $B$3:$B$26)</f>
+        <v>8</v>
+      </c>
+      <c r="F25" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="22">
+        <v>24</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="24" cm="1">
+        <f t="array" ref="E26">SUMPRODUCT(($C$3:$C$26&gt;=C26-7)*($C$3:$C$26&lt;=C26), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=C26-16)*($C$3:$C$26&lt;=C26-9), $A$3:$A$26)
+ +SUMPRODUCT(($C$3:$C$26&gt;=(C26-7))*($C$3:$C$26&lt;=C26), $B$3:$B$26)</f>
+        <v>8</v>
+      </c>
+      <c r="F26" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="28">
+        <f>20*8*SUM($A$3:$A$10) + 24*4*SUM($B$3:$B$19)</f>
+        <v>3296</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>